--- a/DataCollection_PowerBudget.xlsx
+++ b/DataCollection_PowerBudget.xlsx
@@ -8,42 +8,147 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/ses3wn_umsystem_edu/Documents/Github/Avionics-Data-Collection-PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_F25DC773A252ABDACC10486AB1DA46AA5BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E05E565B-E434-4C3B-8762-56549DF939E8}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="11_F25DC773A252ABDACC10486AB1DA46AA5BDE58E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C672362C-C05B-478E-9634-EAF58D34D0FA}"/>
   <bookViews>
-    <workbookView xWindow="-13560" yWindow="4650" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PowerBudget" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Total Power (W)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>3.3V (mA)</t>
   </si>
   <si>
     <t>5V (mA)</t>
+  </si>
+  <si>
+    <t>Device:</t>
+  </si>
+  <si>
+    <t>Subsystem:</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>3.3V Power (W)</t>
+  </si>
+  <si>
+    <t>5V Power (W)</t>
+  </si>
+  <si>
+    <t>STM32L552CC @ 110MHz @ 105°C + All Peripherals Enabled</t>
+  </si>
+  <si>
+    <t>Power Subtotal (W)</t>
+  </si>
+  <si>
+    <t>Parameters:</t>
+  </si>
+  <si>
+    <t>5V Rail Voltage:</t>
+  </si>
+  <si>
+    <t>3V Rail Voltage:</t>
+  </si>
+  <si>
+    <t>Runtime:</t>
+  </si>
+  <si>
+    <t>Energy Consumption:</t>
+  </si>
+  <si>
+    <t>Safety Margin:</t>
+  </si>
+  <si>
+    <t>Design Spec 5V Current Draw:</t>
+  </si>
+  <si>
+    <t>Design Spec 3.3V Current Draw:</t>
+  </si>
+  <si>
+    <t>Total Spec 5V Power Draw:</t>
+  </si>
+  <si>
+    <t>Total Spec 3.3V Power Draw:</t>
+  </si>
+  <si>
+    <t>TOTAL SPEC POWER DRAW:</t>
+  </si>
+  <si>
+    <t>3 Red LED</t>
+  </si>
+  <si>
+    <t>IMU</t>
+  </si>
+  <si>
+    <t>BNO055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature </t>
+  </si>
+  <si>
+    <t>MCP9804</t>
+  </si>
+  <si>
+    <t>Barometer</t>
+  </si>
+  <si>
+    <t>MS5607</t>
+  </si>
+  <si>
+    <t>High G Accelerometer</t>
+  </si>
+  <si>
+    <t>KX134-1211</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>w25q32jvss</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>Max-8Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="0.0\ &quot;V&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0\ &quot;mA&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0\ &quot;W&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.0\ &quot;h&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.0\ &quot;Wh&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00\ &quot;mA&quot;"/>
+    <numFmt numFmtId="170" formatCode="0.00\ &quot;W&quot;"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +156,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,13 +193,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -357,32 +542,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="18.26171875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16384" width="18.28515625" style="1"/>
+    <col min="1" max="1" width="20.578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.26171875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.68359375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.15625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.41796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.68359375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26171875" style="2"/>
+    <col min="9" max="9" width="30.578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.83984375" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="18.26171875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="16">
+        <v>72</v>
+      </c>
+      <c r="D2" s="17">
+        <f t="shared" ref="D2:D9" si="0">(C2/1000)*$J$3</f>
+        <v>0.23759999999999998</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <f>(E2/1000)*$J$2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <f>D2+F2</f>
+        <v>0.23759999999999998</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="16">
+        <v>45</v>
+      </c>
+      <c r="D3" s="17">
+        <f t="shared" si="0"/>
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
+        <f>(E3/1000)*$J$2</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <f>D3+F3</f>
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="16">
+        <v>15</v>
+      </c>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9499999999999995E-2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <f t="shared" ref="F4:F9" si="1">(E4/1000)*$J$2</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G9" si="2">D4+F4</f>
+        <v>4.9499999999999995E-2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="16">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D5" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3200000000000001E-6</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3200000000000001E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>4.9499999999999995E-3</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="2"/>
+        <v>4.9499999999999995E-3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="7">
+        <f>SUM(E:E)*(1+J4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D7" s="17">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000003E-7</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="2"/>
+        <v>6.6000000000000003E-7</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="7">
+        <f>SUM(C:C)*(1+J4)</f>
+        <v>281.87575000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="16">
+        <v>25</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="2"/>
+        <v>8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="16">
+        <v>67</v>
+      </c>
+      <c r="D9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="2"/>
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="14">
+        <f>J2*(J6/1000)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="14">
+        <f>J3*(J7/1000)</f>
+        <v>0.93018997500000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="12">
+        <f>J9+J10</f>
+        <v>0.93018997500000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="10">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="15">
+        <f>J13*J11</f>
+        <v>2.7905699250000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>